--- a/app/data/maestros.xlsx
+++ b/app/data/maestros.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SergioRetuertoGutier\Documents\Projects\attsf\attsf-ordenes-de-trabajo\app\data\maestros\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SergioRetuertoGutier\Documents\Projects\attsf\attsf-ordenes-de-trabajo\app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F07A7B-93DD-44FF-BA5C-36768ED365B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06564B64-D512-4A6F-B17A-1B80D0A26E23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="camion" sheetId="1" r:id="rId1"/>
@@ -4066,7 +4066,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -12700,16 +12700,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:E359"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.42578125" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="39.28515625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
@@ -12738,10 +12738,10 @@
         <v>423</v>
       </c>
       <c r="C2" s="3">
-        <v>277321</v>
+        <v>27.732080980572398</v>
       </c>
       <c r="D2" s="3">
-        <v>-801831</v>
+        <v>-8.0183106077851996</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>456</v>
@@ -12756,10 +12756,10 @@
         <v>387</v>
       </c>
       <c r="C3" s="3">
-        <v>276147</v>
+        <v>27.614697279679699</v>
       </c>
       <c r="D3" s="3">
-        <v>-786977</v>
+        <v>-7869766227805630</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>457</v>
@@ -12774,10 +12774,10 @@
         <v>426</v>
       </c>
       <c r="C4" s="3">
-        <v>275064</v>
+        <v>27.506362076684599</v>
       </c>
       <c r="D4" s="3">
-        <v>-800828</v>
+        <v>-8008280197426500</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>458</v>
@@ -12792,7 +12792,7 @@
         <v>425</v>
       </c>
       <c r="C5" s="3">
-        <v>268257</v>
+        <v>26.825700000000001</v>
       </c>
       <c r="D5" s="3">
         <v>-686468</v>
@@ -12810,7 +12810,7 @@
         <v>424</v>
       </c>
       <c r="C6" s="3">
-        <v>274951</v>
+        <v>27.495100000000001</v>
       </c>
       <c r="D6" s="3">
         <v>-782654</v>

--- a/app/data/maestros.xlsx
+++ b/app/data/maestros.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SergioRetuertoGutier\Documents\Projects\attsf\attsf-ordenes-de-trabajo\app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06564B64-D512-4A6F-B17A-1B80D0A26E23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B239981-A33A-4085-BF88-9E5BB28B00B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12701,7 +12701,7 @@
   <dimension ref="A1:E359"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12759,7 +12759,7 @@
         <v>27.614697279679699</v>
       </c>
       <c r="D3" s="3">
-        <v>-7869766227805630</v>
+        <v>-7.8697662278056297</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>457</v>
@@ -12777,7 +12777,7 @@
         <v>27.506362076684599</v>
       </c>
       <c r="D4" s="3">
-        <v>-8008280197426500</v>
+        <v>-8.0082801974264992</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>458</v>
@@ -12795,7 +12795,7 @@
         <v>26.825700000000001</v>
       </c>
       <c r="D5" s="3">
-        <v>-686468</v>
+        <v>-6.8646799999999999</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>459</v>
@@ -12813,7 +12813,7 @@
         <v>27.495100000000001</v>
       </c>
       <c r="D6" s="3">
-        <v>-782654</v>
+        <v>-7.8265399999999996</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>460</v>
@@ -12828,10 +12828,10 @@
         <v>461</v>
       </c>
       <c r="C7" s="3">
-        <v>27482</v>
+        <v>27.481999999999999</v>
       </c>
       <c r="D7" s="3">
-        <v>-809825</v>
+        <v>-8.0982500000000002</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>462</v>

--- a/app/data/maestros.xlsx
+++ b/app/data/maestros.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SergioRetuertoGutier\Documents\Projects\attsf\attsf-ordenes-de-trabajo\app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B239981-A33A-4085-BF88-9E5BB28B00B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76535C81-408C-4899-8E0C-1A33C4F99D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="camion" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1198" uniqueCount="540">
   <si>
     <t>id_camion</t>
   </si>
@@ -12700,7 +12700,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:E359"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -20253,27 +20253,30 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B135"/>
+  <dimension ref="A1:C135"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>275</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="5" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -20281,16 +20284,16 @@
         <v>277</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <f t="shared" ref="A3:A66" si="0">IF(NOT(ISBLANK(B3)),A2+1, "")</f>
+        <f t="shared" ref="A3:A14" si="0">IF(NOT(ISBLANK(B3)),A2+1, "")</f>
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -20299,7 +20302,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -20308,7 +20311,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -20317,7 +20320,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -20326,7 +20329,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -20335,7 +20338,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -20344,7 +20347,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -20353,7 +20356,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -20362,7 +20365,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -20371,7 +20374,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -20380,7 +20383,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -20389,397 +20392,694 @@
         <v>538</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" t="str">
-        <f t="shared" ref="A67:A130" si="1">IF(NOT(ISBLANK(B67)),A66+1, "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f>IF(NOT(ISBLANK(#REF!)),A14+1, "")</f>
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>480</v>
+      </c>
+      <c r="C15" s="3">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f>IF(NOT(ISBLANK(#REF!)),A15+1, "")</f>
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>481</v>
+      </c>
+      <c r="C16" s="3">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f>IF(NOT(ISBLANK(#REF!)),A16+1, "")</f>
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f>IF(NOT(ISBLANK(#REF!)),A17+1, "")</f>
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>483</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f>IF(NOT(ISBLANK(#REF!)),A18+1, "")</f>
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f>IF(NOT(ISBLANK(#REF!)),A19+1, "")</f>
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f>IF(NOT(ISBLANK(#REF!)),A20+1, "")</f>
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f>IF(NOT(ISBLANK(#REF!)),A21+1, "")</f>
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>487</v>
+      </c>
+      <c r="C22">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f>IF(NOT(ISBLANK(#REF!)),A22+1, "")</f>
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>488</v>
+      </c>
+      <c r="C23">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f>IF(NOT(ISBLANK(#REF!)),A23+1, "")</f>
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>489</v>
+      </c>
+      <c r="C24">
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f>IF(NOT(ISBLANK(#REF!)),A24+1, "")</f>
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>490</v>
+      </c>
+      <c r="C25">
+        <v>58000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f>IF(NOT(ISBLANK(#REF!)),A25+1, "")</f>
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>491</v>
+      </c>
+      <c r="C26">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f>IF(NOT(ISBLANK(#REF!)),A26+1, "")</f>
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f>IF(NOT(ISBLANK(#REF!)),A27+1, "")</f>
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>493</v>
+      </c>
+      <c r="C28">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f>IF(NOT(ISBLANK(#REF!)),A28+1, "")</f>
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>494</v>
+      </c>
+      <c r="C29">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f>IF(NOT(ISBLANK(#REF!)),A29+1, "")</f>
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>495</v>
+      </c>
+      <c r="C30">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f>IF(NOT(ISBLANK(#REF!)),A30+1, "")</f>
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>496</v>
+      </c>
+      <c r="C31">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f>IF(NOT(ISBLANK(#REF!)),A31+1, "")</f>
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>497</v>
+      </c>
+      <c r="C32">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f>IF(NOT(ISBLANK(#REF!)),A32+1, "")</f>
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>498</v>
+      </c>
+      <c r="C33">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f>IF(NOT(ISBLANK(#REF!)),A33+1, "")</f>
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>499</v>
+      </c>
+      <c r="C34" s="3">
+        <v>95000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f>IF(NOT(ISBLANK(#REF!)),A34+1, "")</f>
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f>IF(NOT(ISBLANK(#REF!)),A35+1, "")</f>
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>501</v>
+      </c>
+      <c r="C36" s="3">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f>IF(NOT(ISBLANK(#REF!)),A36+1, "")</f>
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>502</v>
+      </c>
+      <c r="C37" s="3">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f>IF(NOT(ISBLANK(#REF!)),A37+1, "")</f>
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f>IF(NOT(ISBLANK(#REF!)),A38+1, "")</f>
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f>IF(NOT(ISBLANK(#REF!)),A39+1, "")</f>
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f>IF(NOT(ISBLANK(#REF!)),A40+1, "")</f>
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <f>IF(NOT(ISBLANK(#REF!)),A41+1, "")</f>
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>507</v>
+      </c>
+      <c r="C42" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <f>IF(NOT(ISBLANK(#REF!)),A42+1, "")</f>
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>508</v>
+      </c>
+      <c r="C43" s="3">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f>IF(NOT(ISBLANK(#REF!)),A43+1, "")</f>
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>509</v>
+      </c>
+      <c r="C44" s="3">
+        <v>95000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f>IF(NOT(ISBLANK(#REF!)),A44+1, "")</f>
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <f>IF(NOT(ISBLANK(#REF!)),A45+1, "")</f>
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <f>IF(NOT(ISBLANK(#REF!)),A46+1, "")</f>
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <f>IF(NOT(ISBLANK(#REF!)),A47+1, "")</f>
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>513</v>
+      </c>
+      <c r="C48" s="3">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <f>IF(NOT(ISBLANK(#REF!)),A48+1, "")</f>
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>514</v>
+      </c>
+      <c r="C49" s="3">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <f>IF(NOT(ISBLANK(#REF!)),A49+1, "")</f>
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <f>IF(NOT(ISBLANK(#REF!)),A50+1, "")</f>
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <f>IF(NOT(ISBLANK(#REF!)),A51+1, "")</f>
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>517</v>
+      </c>
+      <c r="C52" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <f>IF(NOT(ISBLANK(#REF!)),A52+1, "")</f>
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>518</v>
+      </c>
+      <c r="C53" s="3">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <f>IF(NOT(ISBLANK(#REF!)),A53+1, "")</f>
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>519</v>
+      </c>
+      <c r="C54">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <f>IF(NOT(ISBLANK(#REF!)),A54+1, "")</f>
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>520</v>
+      </c>
+      <c r="C55">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <f>IF(NOT(ISBLANK(#REF!)),A55+1, "")</f>
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>521</v>
+      </c>
+      <c r="C56" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <f>IF(NOT(ISBLANK(#REF!)),A56+1, "")</f>
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>522</v>
+      </c>
+      <c r="C57" s="3">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <f>IF(NOT(ISBLANK(#REF!)),A57+1, "")</f>
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>523</v>
+      </c>
+      <c r="C58" s="3">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <f>IF(NOT(ISBLANK(#REF!)),A58+1, "")</f>
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>524</v>
+      </c>
+      <c r="C59" s="3">
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <f>IF(NOT(ISBLANK(#REF!)),A59+1, "")</f>
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>525</v>
+      </c>
+      <c r="C60" s="3">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <f>IF(NOT(ISBLANK(#REF!)),A60+1, "")</f>
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>526</v>
+      </c>
+      <c r="C61">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <f>IF(NOT(ISBLANK(#REF!)),A61+1, "")</f>
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>527</v>
+      </c>
+      <c r="C62" s="3">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <f>IF(NOT(ISBLANK(#REF!)),A62+1, "")</f>
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>528</v>
+      </c>
+      <c r="C63" s="3">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <f>IF(NOT(ISBLANK(#REF!)),A63+1, "")</f>
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>529</v>
+      </c>
+      <c r="C64" s="3">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <f>IF(NOT(ISBLANK(#REF!)),A64+1, "")</f>
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>530</v>
+      </c>
+      <c r="C65" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <f>IF(NOT(ISBLANK(#REF!)),A65+1, "")</f>
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>531</v>
+      </c>
+      <c r="C66" s="3">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <f>IF(NOT(ISBLANK(#REF!)),A66+1, "")</f>
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>532</v>
+      </c>
+      <c r="C67" s="3">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <f>IF(NOT(ISBLANK(#REF!)),A67+1, "")</f>
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>533</v>
+      </c>
+      <c r="C68" s="3">
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <f>IF(NOT(ISBLANK(#REF!)),A68+1, "")</f>
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>534</v>
+      </c>
+      <c r="C69" s="3">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <f>IF(NOT(ISBLANK(#REF!)),A69+1, "")</f>
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>535</v>
+      </c>
+      <c r="C70">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <f>IF(NOT(ISBLANK(#REF!)),A70+1, "")</f>
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>536</v>
+      </c>
+      <c r="C71">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="A72:A130" si="1">IF(NOT(ISBLANK(B72)),A71+1, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -21124,13 +21424,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C344"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
     <col min="3" max="3" width="8.140625" customWidth="1"/>
   </cols>
@@ -21156,7 +21456,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <f t="shared" ref="A3:A66" si="0">IF(NOT(ISBLANK(B3)),A2+1, "")</f>
+        <f t="shared" ref="A3:A22" si="0">IF(NOT(ISBLANK(B3)),A2+1, "")</f>
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -21380,645 +21680,348 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>480</v>
-      </c>
-      <c r="C23" s="3">
-        <v>7000</v>
+      <c r="A23" t="str">
+        <f t="shared" ref="A23:A86" si="1">IF(NOT(ISBLANK(B23)),A22+1, "")</f>
+        <v/>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>481</v>
-      </c>
-      <c r="C24" s="3">
-        <v>11000</v>
+      <c r="A24" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>482</v>
+      <c r="A25" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>483</v>
-      </c>
-      <c r="C26" s="3">
-        <v>1500</v>
+      <c r="A26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>484</v>
+      <c r="A27" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>485</v>
+      <c r="A28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>486</v>
+      <c r="A29" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>487</v>
-      </c>
-      <c r="C30">
-        <v>3000</v>
+      <c r="A30" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>488</v>
-      </c>
-      <c r="C31">
-        <v>3000</v>
+      <c r="A31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>489</v>
-      </c>
-      <c r="C32">
-        <v>62000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>490</v>
-      </c>
-      <c r="C33">
-        <v>58000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>491</v>
-      </c>
-      <c r="C34">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>493</v>
-      </c>
-      <c r="C36">
-        <v>55000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="B37" t="s">
-        <v>494</v>
-      </c>
-      <c r="C37">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
-        <v>495</v>
-      </c>
-      <c r="C38">
-        <v>14000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="B39" t="s">
-        <v>496</v>
-      </c>
-      <c r="C39">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="B40" t="s">
-        <v>497</v>
-      </c>
-      <c r="C40">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="B41" t="s">
-        <v>498</v>
-      </c>
-      <c r="C41">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="B42" t="s">
-        <v>499</v>
-      </c>
-      <c r="C42" s="3">
-        <v>95000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="B43" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="B44" t="s">
-        <v>501</v>
-      </c>
-      <c r="C44" s="3">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="B45" t="s">
-        <v>502</v>
-      </c>
-      <c r="C45" s="3">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="B46" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="B47" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="B48" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="B49" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="B50" t="s">
-        <v>507</v>
-      </c>
-      <c r="C50" s="3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="B51" t="s">
-        <v>508</v>
-      </c>
-      <c r="C51" s="3">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-      <c r="B52" t="s">
-        <v>509</v>
-      </c>
-      <c r="C52" s="3">
-        <v>95000</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="B53" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
-      <c r="B54" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="B55" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="B56" t="s">
-        <v>513</v>
-      </c>
-      <c r="C56" s="3">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-      <c r="B57" t="s">
-        <v>514</v>
-      </c>
-      <c r="C57" s="3">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <f t="shared" si="0"/>
-        <v>57</v>
-      </c>
-      <c r="B58" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <f t="shared" si="0"/>
-        <v>58</v>
-      </c>
-      <c r="B59" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <f t="shared" si="0"/>
-        <v>59</v>
-      </c>
-      <c r="B60" t="s">
-        <v>517</v>
-      </c>
-      <c r="C60" s="3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="B61" t="s">
-        <v>518</v>
-      </c>
-      <c r="C61" s="3">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <f t="shared" si="0"/>
-        <v>61</v>
-      </c>
-      <c r="B62" t="s">
-        <v>519</v>
-      </c>
-      <c r="C62">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <f t="shared" si="0"/>
-        <v>62</v>
-      </c>
-      <c r="B63" t="s">
-        <v>520</v>
-      </c>
-      <c r="C63">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <f t="shared" si="0"/>
-        <v>63</v>
-      </c>
-      <c r="B64" t="s">
-        <v>521</v>
-      </c>
-      <c r="C64" s="3">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="B65" t="s">
-        <v>522</v>
-      </c>
-      <c r="C65" s="3">
-        <v>2250</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-      <c r="B66" t="s">
-        <v>523</v>
-      </c>
-      <c r="C66" s="3">
-        <v>18000</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <f t="shared" ref="A67:A130" si="1">IF(NOT(ISBLANK(B67)),A66+1, "")</f>
-        <v>66</v>
-      </c>
-      <c r="B67" t="s">
-        <v>524</v>
-      </c>
-      <c r="C67" s="3">
-        <v>160000</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <f t="shared" si="1"/>
-        <v>67</v>
-      </c>
-      <c r="B68" t="s">
-        <v>525</v>
-      </c>
-      <c r="C68" s="3">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <f t="shared" si="1"/>
-        <v>68</v>
-      </c>
-      <c r="B69" t="s">
-        <v>526</v>
-      </c>
-      <c r="C69">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <f t="shared" si="1"/>
-        <v>69</v>
-      </c>
-      <c r="B70" t="s">
-        <v>527</v>
-      </c>
-      <c r="C70" s="3">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <f t="shared" si="1"/>
-        <v>70</v>
-      </c>
-      <c r="B71" t="s">
-        <v>528</v>
-      </c>
-      <c r="C71" s="3">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <f t="shared" si="1"/>
-        <v>71</v>
-      </c>
-      <c r="B72" t="s">
-        <v>529</v>
-      </c>
-      <c r="C72" s="3">
-        <v>28000</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <f t="shared" si="1"/>
-        <v>72</v>
-      </c>
-      <c r="B73" t="s">
-        <v>530</v>
-      </c>
-      <c r="C73" s="3">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <f t="shared" si="1"/>
-        <v>73</v>
-      </c>
-      <c r="B74" t="s">
-        <v>531</v>
-      </c>
-      <c r="C74" s="3">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <f t="shared" si="1"/>
-        <v>74</v>
-      </c>
-      <c r="B75" t="s">
-        <v>532</v>
-      </c>
-      <c r="C75" s="3">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-      <c r="B76" t="s">
-        <v>533</v>
-      </c>
-      <c r="C76" s="3">
-        <v>36000</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <f t="shared" si="1"/>
-        <v>76</v>
-      </c>
-      <c r="B77" t="s">
-        <v>534</v>
-      </c>
-      <c r="C77" s="3">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <f t="shared" si="1"/>
-        <v>77</v>
-      </c>
-      <c r="B78" t="s">
-        <v>535</v>
-      </c>
-      <c r="C78">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <f t="shared" si="1"/>
-        <v>78</v>
-      </c>
-      <c r="B79" t="s">
-        <v>536</v>
-      </c>
-      <c r="C79">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -22062,271 +22065,271 @@
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A87:A150" si="2">IF(NOT(ISBLANK(B87)),A86+1, "")</f>
         <v/>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" t="str">
-        <f t="shared" ref="A131:A194" si="2">IF(NOT(ISBLANK(B131)),A130+1, "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -22446,271 +22449,271 @@
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="A151:A214" si="3">IF(NOT(ISBLANK(B151)),A150+1, "")</f>
         <v/>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" t="str">
-        <f t="shared" ref="A195:A258" si="3">IF(NOT(ISBLANK(B195)),A194+1, "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -22830,271 +22833,271 @@
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="A215:A278" si="4">IF(NOT(ISBLANK(B215)),A214+1, "")</f>
         <v/>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" t="str">
-        <f t="shared" ref="A259:A322" si="4">IF(NOT(ISBLANK(B259)),A258+1, "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -23214,271 +23217,271 @@
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="A279:A341" si="5">IF(NOT(ISBLANK(B279)),A278+1, "")</f>
         <v/>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A318" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323" t="str">
-        <f t="shared" ref="A323:A344" si="5">IF(NOT(ISBLANK(B323)),A322+1, "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -23592,19 +23595,19 @@
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A342" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="A342:A344" si="6">IF(NOT(ISBLANK(B342)),A341+1, "")</f>
         <v/>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A343" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
